--- a/Basics/testData/TestData.xlsx
+++ b/Basics/testData/TestData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\Basics\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\SeleniumScript\Basics\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="demowebshop" sheetId="2" r:id="rId2"/>
+    <sheet name="regdata" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -49,16 +51,75 @@
   </si>
   <si>
     <t>sirsi</t>
+  </si>
+  <si>
+    <t>Apoorva</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>apoorvamangalore40@gmail.com</t>
+  </si>
+  <si>
+    <t>appu3700!23Ap</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Radha</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>Sita</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>apoo30@gmail.com</t>
+  </si>
+  <si>
+    <t>Appu</t>
+  </si>
+  <si>
+    <t>appoorvamangalore40@gmail.com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +142,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -417,12 +481,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/Basics/testData/TestData.xlsx
+++ b/Basics/testData/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -38,9 +38,6 @@
     <t>apoorva</t>
   </si>
   <si>
-    <t>APOORVA</t>
-  </si>
-  <si>
     <t>MANGALORE</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>ghfhfghzFwgshf</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,28 +450,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -497,22 +489,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -541,122 +533,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -674,10 +666,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,36 +678,41 @@
     <col min="2" max="2" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Basics/testData/TestData.xlsx
+++ b/Basics/testData/TestData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\SeleniumScript\Basics\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="5740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="regdata" sheetId="3" r:id="rId3"/>
     <sheet name="login" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -38,70 +34,61 @@
     <t>apoorva</t>
   </si>
   <si>
-    <t>MANGALORE</t>
+    <t>Apoorva</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>apoorvamangalore40@gmail.com</t>
+  </si>
+  <si>
+    <t>appu3700!23Ap</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Radha</t>
+  </si>
+  <si>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>Sita</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>apoo30@gmail.com</t>
+  </si>
+  <si>
+    <t>Appu</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
   <si>
     <t>mangalore</t>
   </si>
   <si>
-    <t>SIRSI</t>
-  </si>
-  <si>
-    <t>sirsi</t>
-  </si>
-  <si>
-    <t>Apoorva</t>
-  </si>
-  <si>
-    <t>Mangalore</t>
-  </si>
-  <si>
-    <t>apoorvamangalore40@gmail.com</t>
-  </si>
-  <si>
-    <t>appu3700!23Ap</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Raju</t>
-  </si>
-  <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Radha</t>
-  </si>
-  <si>
-    <t>Sham</t>
-  </si>
-  <si>
-    <t>Sita</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>apoo30@gmail.com</t>
-  </si>
-  <si>
-    <t>Appu</t>
-  </si>
-  <si>
-    <t>appoorvamangalore40@gmail.com</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>ghfhfghzFwgshf</t>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
@@ -430,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,20 +437,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +463,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,22 +476,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -519,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,122 +520,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -666,10 +653,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,41 +665,44 @@
     <col min="2" max="2" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I11" t="s">
-        <v>24</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -720,8 +710,9 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Basics/testData/TestData.xlsx
+++ b/Basics/testData/TestData.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\SeleniumScript\Basics\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="5740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="5620"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="demowebshop" sheetId="2" r:id="rId2"/>
     <sheet name="regdata" sheetId="3" r:id="rId3"/>
     <sheet name="login" sheetId="4" r:id="rId4"/>
+    <sheet name="demoweb" sheetId="7" r:id="rId5"/>
+    <sheet name="stuId" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -82,13 +88,49 @@
     <t>Id</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>mangalore</t>
   </si>
   <si>
-    <t>aaaa</t>
+    <t>Aaaa</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>chinni</t>
+  </si>
+  <si>
+    <t>sumanth</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>5678978</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>1234556</t>
+  </si>
+  <si>
+    <t>apoorva.c@testyantra.com</t>
+  </si>
+  <si>
+    <t>0987643</t>
   </si>
 </sst>
 </file>
@@ -133,9 +175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,19 +488,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43840</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -506,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,7 +711,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,29 +745,116 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1234</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>